--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nchau\CodingDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE9E2ADA-08BB-4C40-BCE5-6668484696D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2CEC43-02E7-47A5-9972-55D30F7BCCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F0B63D29-3C02-4F4C-8E22-BA7140A0D702}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>this is for texting only</t>
+    <t>this is for texting only, and crazy</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FFB9E4-0876-433E-9B7F-33761BC5256D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
